--- a/fastqFiles/fastq_1028.xlsx
+++ b/fastqFiles/fastq_1028.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2849917-DD48-5C4B-B0E3-A5D0FE8B0C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7634759-5B6C-1E49-B5C2-DA2D11442877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26340" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>libraryDate</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,7 +497,7 @@
         <v>1028</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -514,7 +517,7 @@
         <v>1028</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -534,7 +537,7 @@
         <v>1028</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -554,7 +557,7 @@
         <v>1028</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -574,7 +577,7 @@
         <v>1028</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -594,7 +597,7 @@
         <v>1028</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -614,7 +617,7 @@
         <v>1028</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -634,7 +637,7 @@
         <v>1028</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -654,7 +657,7 @@
         <v>1028</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -674,7 +677,7 @@
         <v>1028</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -694,7 +697,7 @@
         <v>1028</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -714,7 +717,7 @@
         <v>1028</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -734,7 +737,7 @@
         <v>1028</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -754,7 +757,7 @@
         <v>1028</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -774,7 +777,7 @@
         <v>1028</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>

--- a/fastqFiles/fastq_1028.xlsx
+++ b/fastqFiles/fastq_1028.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
